--- a/example_dataset/image data/ChangePoints_Results/OTdata_example_30nM DNAp + trx  + 625uM dNTPs-cycle#01-processedData-correlated_analysis.xlsx
+++ b/example_dataset/image data/ChangePoints_Results/OTdata_example_30nM DNAp + trx  + 625uM dNTPs-cycle#01-processedData-correlated_analysis.xlsx
@@ -39855,7 +39855,7 @@
         <v>9.80738775510204</v>
       </c>
       <c r="B2" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="3">
@@ -39863,7 +39863,7 @@
         <v>10.02059183673469</v>
       </c>
       <c r="B3" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="4">
@@ -39871,7 +39871,7 @@
         <v>10.23379591836735</v>
       </c>
       <c r="B4" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="5">
@@ -39879,7 +39879,7 @@
         <v>10.447</v>
       </c>
       <c r="B5" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="6">
@@ -39887,7 +39887,7 @@
         <v>10.66020408163265</v>
       </c>
       <c r="B6" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="7">
@@ -39895,7 +39895,7 @@
         <v>10.87340816326531</v>
       </c>
       <c r="B7" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="8">
@@ -39903,7 +39903,7 @@
         <v>11.08661224489796</v>
       </c>
       <c r="B8" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="9">
@@ -39911,7 +39911,7 @@
         <v>11.29981632653061</v>
       </c>
       <c r="B9" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="10">
@@ -39919,7 +39919,7 @@
         <v>11.51302040816326</v>
       </c>
       <c r="B10" t="n">
-        <v>34.06084656084656</v>
+        <v>34.06084656084657</v>
       </c>
     </row>
     <row r="11">
@@ -39927,7 +39927,7 @@
         <v>11.72622448979592</v>
       </c>
       <c r="B11" t="n">
-        <v>40.05714285714291</v>
+        <v>40.05714285714289</v>
       </c>
     </row>
     <row r="12">
@@ -39935,7 +39935,7 @@
         <v>11.93942857142857</v>
       </c>
       <c r="B12" t="n">
-        <v>40.05714285714291</v>
+        <v>40.05714285714289</v>
       </c>
     </row>
     <row r="13">
@@ -39943,7 +39943,7 @@
         <v>12.15263265306122</v>
       </c>
       <c r="B13" t="n">
-        <v>40.05714285714291</v>
+        <v>40.05714285714289</v>
       </c>
     </row>
     <row r="14">
@@ -39951,7 +39951,7 @@
         <v>12.36583673469388</v>
       </c>
       <c r="B14" t="n">
-        <v>40.05714285714291</v>
+        <v>40.05714285714289</v>
       </c>
     </row>
     <row r="15">
@@ -39959,7 +39959,7 @@
         <v>12.57904081632653</v>
       </c>
       <c r="B15" t="n">
-        <v>40.05714285714291</v>
+        <v>40.05714285714289</v>
       </c>
     </row>
     <row r="16">
@@ -39967,7 +39967,7 @@
         <v>12.79224489795918</v>
       </c>
       <c r="B16" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="17">
@@ -39975,7 +39975,7 @@
         <v>13.00544897959184</v>
       </c>
       <c r="B17" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="18">
@@ -39983,7 +39983,7 @@
         <v>13.21865306122449</v>
       </c>
       <c r="B18" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="19">
@@ -39991,7 +39991,7 @@
         <v>13.43185714285714</v>
       </c>
       <c r="B19" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="20">
@@ -39999,7 +39999,7 @@
         <v>13.6450612244898</v>
       </c>
       <c r="B20" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="21">
@@ -40007,7 +40007,7 @@
         <v>13.85826530612245</v>
       </c>
       <c r="B21" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="22">
@@ -40015,7 +40015,7 @@
         <v>14.0714693877551</v>
       </c>
       <c r="B22" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="23">
@@ -40023,7 +40023,7 @@
         <v>14.28467346938776</v>
       </c>
       <c r="B23" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="24">
@@ -40031,7 +40031,7 @@
         <v>14.49787755102041</v>
       </c>
       <c r="B24" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="25">
@@ -40039,7 +40039,7 @@
         <v>14.71108163265306</v>
       </c>
       <c r="B25" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="26">
@@ -40047,7 +40047,7 @@
         <v>14.92428571428571</v>
       </c>
       <c r="B26" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="27">
@@ -40055,7 +40055,7 @@
         <v>15.13748979591837</v>
       </c>
       <c r="B27" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="28">
@@ -40063,7 +40063,7 @@
         <v>15.35069387755102</v>
       </c>
       <c r="B28" t="n">
-        <v>30.58241758241759</v>
+        <v>30.5824175824176</v>
       </c>
     </row>
     <row r="29">
@@ -40127,7 +40127,7 @@
         <v>17.05632653061225</v>
       </c>
       <c r="B36" t="n">
-        <v>38.28571428571437</v>
+        <v>38.28571428571431</v>
       </c>
     </row>
     <row r="37">
@@ -40135,7 +40135,7 @@
         <v>17.2695306122449</v>
       </c>
       <c r="B37" t="n">
-        <v>38.28571428571437</v>
+        <v>38.28571428571431</v>
       </c>
     </row>
     <row r="38">
@@ -40143,7 +40143,7 @@
         <v>17.48273469387755</v>
       </c>
       <c r="B38" t="n">
-        <v>38.28571428571437</v>
+        <v>38.28571428571431</v>
       </c>
     </row>
     <row r="39">
@@ -40151,7 +40151,7 @@
         <v>17.6959387755102</v>
       </c>
       <c r="B39" t="n">
-        <v>38.28571428571437</v>
+        <v>38.28571428571431</v>
       </c>
     </row>
     <row r="40">
@@ -40159,7 +40159,7 @@
         <v>17.90914285714286</v>
       </c>
       <c r="B40" t="n">
-        <v>38.28571428571437</v>
+        <v>38.28571428571431</v>
       </c>
     </row>
     <row r="41">
@@ -40167,7 +40167,7 @@
         <v>18.12234693877551</v>
       </c>
       <c r="B41" t="n">
-        <v>38.28571428571437</v>
+        <v>38.28571428571431</v>
       </c>
     </row>
     <row r="42">
@@ -40175,7 +40175,7 @@
         <v>18.33555102040816</v>
       </c>
       <c r="B42" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -40183,7 +40183,7 @@
         <v>18.54875510204081</v>
       </c>
       <c r="B43" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="44">
@@ -40191,7 +40191,7 @@
         <v>18.76195918367347</v>
       </c>
       <c r="B44" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="45">
@@ -40199,7 +40199,7 @@
         <v>18.97516326530612</v>
       </c>
       <c r="B45" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="46">
@@ -40207,7 +40207,7 @@
         <v>19.18836734693878</v>
       </c>
       <c r="B46" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="47">
@@ -40215,7 +40215,7 @@
         <v>19.40157142857143</v>
       </c>
       <c r="B47" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="48">
@@ -40223,7 +40223,7 @@
         <v>19.61477551020408</v>
       </c>
       <c r="B48" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="49">
@@ -40231,7 +40231,7 @@
         <v>19.82797959183673</v>
       </c>
       <c r="B49" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="50">
@@ -40239,7 +40239,7 @@
         <v>20.04118367346939</v>
       </c>
       <c r="B50" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="51">
@@ -40247,7 +40247,7 @@
         <v>20.25438775510204</v>
       </c>
       <c r="B51" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="52">
@@ -40255,7 +40255,7 @@
         <v>20.46759183673469</v>
       </c>
       <c r="B52" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="53">
@@ -40263,7 +40263,7 @@
         <v>20.68079591836734</v>
       </c>
       <c r="B53" t="n">
-        <v>26.63888888888891</v>
+        <v>26.6388888888889</v>
       </c>
     </row>
     <row r="54">
@@ -40271,7 +40271,7 @@
         <v>20.894</v>
       </c>
       <c r="B54" t="n">
-        <v>34.83333333333321</v>
+        <v>34.83333333333336</v>
       </c>
     </row>
     <row r="55">
@@ -40279,7 +40279,7 @@
         <v>21.10720408163265</v>
       </c>
       <c r="B55" t="n">
-        <v>34.83333333333321</v>
+        <v>34.83333333333336</v>
       </c>
     </row>
     <row r="56">
@@ -40343,7 +40343,7 @@
         <v>22.81283673469388</v>
       </c>
       <c r="B63" t="n">
-        <v>41.93197278911573</v>
+        <v>41.93197278911568</v>
       </c>
     </row>
     <row r="64">
@@ -40351,7 +40351,7 @@
         <v>23.02604081632653</v>
       </c>
       <c r="B64" t="n">
-        <v>41.93197278911573</v>
+        <v>41.93197278911568</v>
       </c>
     </row>
     <row r="65">
@@ -40359,7 +40359,7 @@
         <v>23.23924489795918</v>
       </c>
       <c r="B65" t="n">
-        <v>41.93197278911573</v>
+        <v>41.93197278911568</v>
       </c>
     </row>
     <row r="66">
@@ -40367,7 +40367,7 @@
         <v>23.45244897959184</v>
       </c>
       <c r="B66" t="n">
-        <v>41.93197278911573</v>
+        <v>41.93197278911568</v>
       </c>
     </row>
     <row r="67">
@@ -40375,7 +40375,7 @@
         <v>23.66565306122449</v>
       </c>
       <c r="B67" t="n">
-        <v>41.93197278911573</v>
+        <v>41.93197278911568</v>
       </c>
     </row>
     <row r="68">
@@ -40383,7 +40383,7 @@
         <v>23.87885714285714</v>
       </c>
       <c r="B68" t="n">
-        <v>41.93197278911573</v>
+        <v>41.93197278911568</v>
       </c>
     </row>
     <row r="69">
@@ -40391,7 +40391,7 @@
         <v>24.0920612244898</v>
       </c>
       <c r="B69" t="n">
-        <v>41.93197278911573</v>
+        <v>41.93197278911568</v>
       </c>
     </row>
     <row r="70">
@@ -40847,7 +40847,7 @@
         <v>36.24469387755102</v>
       </c>
       <c r="B126" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="127">
@@ -40855,7 +40855,7 @@
         <v>36.45789795918368</v>
       </c>
       <c r="B127" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="128">
@@ -40863,7 +40863,7 @@
         <v>36.67110204081632</v>
       </c>
       <c r="B128" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="129">
@@ -40871,7 +40871,7 @@
         <v>36.88430612244898</v>
       </c>
       <c r="B129" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="130">
@@ -40879,7 +40879,7 @@
         <v>37.09751020408163</v>
       </c>
       <c r="B130" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="131">
@@ -40887,7 +40887,7 @@
         <v>37.31071428571428</v>
       </c>
       <c r="B131" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="132">
@@ -40895,7 +40895,7 @@
         <v>37.52391836734694</v>
       </c>
       <c r="B132" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="133">
@@ -40903,7 +40903,7 @@
         <v>37.73712244897959</v>
       </c>
       <c r="B133" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="134">
@@ -40911,7 +40911,7 @@
         <v>37.95032653061224</v>
       </c>
       <c r="B134" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="135">
@@ -40919,7 +40919,7 @@
         <v>38.1635306122449</v>
       </c>
       <c r="B135" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="136">
@@ -40927,7 +40927,7 @@
         <v>38.37673469387755</v>
       </c>
       <c r="B136" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="137">
@@ -40935,7 +40935,7 @@
         <v>38.58993877551021</v>
       </c>
       <c r="B137" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="138">
@@ -40943,7 +40943,7 @@
         <v>38.80314285714286</v>
       </c>
       <c r="B138" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="139">
@@ -40951,7 +40951,7 @@
         <v>39.01634693877551</v>
       </c>
       <c r="B139" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="140">
@@ -40959,7 +40959,7 @@
         <v>39.22955102040816</v>
       </c>
       <c r="B140" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="141">
@@ -40967,7 +40967,7 @@
         <v>39.44275510204081</v>
       </c>
       <c r="B141" t="n">
-        <v>29.62797619047623</v>
+        <v>29.62797619047621</v>
       </c>
     </row>
     <row r="142">
@@ -40975,7 +40975,7 @@
         <v>39.65595918367347</v>
       </c>
       <c r="B142" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="143">
@@ -40983,7 +40983,7 @@
         <v>39.86916326530612</v>
       </c>
       <c r="B143" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="144">
@@ -40991,7 +40991,7 @@
         <v>40.08236734693877</v>
       </c>
       <c r="B144" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="145">
@@ -40999,7 +40999,7 @@
         <v>40.29557142857143</v>
       </c>
       <c r="B145" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="146">
@@ -41007,7 +41007,7 @@
         <v>40.50877551020408</v>
       </c>
       <c r="B146" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="147">
@@ -41015,7 +41015,7 @@
         <v>40.72197959183674</v>
       </c>
       <c r="B147" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="148">
@@ -41023,7 +41023,7 @@
         <v>40.93518367346939</v>
       </c>
       <c r="B148" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="149">
@@ -41031,7 +41031,7 @@
         <v>41.14838775510204</v>
       </c>
       <c r="B149" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="150">
@@ -41039,7 +41039,7 @@
         <v>41.36159183673469</v>
       </c>
       <c r="B150" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="151">
@@ -41047,7 +41047,7 @@
         <v>41.57479591836734</v>
       </c>
       <c r="B151" t="n">
-        <v>23.50476190476193</v>
+        <v>23.50476190476192</v>
       </c>
     </row>
     <row r="152">
@@ -41311,7 +41311,7 @@
         <v>48.61053061224489</v>
       </c>
       <c r="B184" t="n">
-        <v>47.48571428571429</v>
+        <v>47.48571428571432</v>
       </c>
     </row>
     <row r="185">
@@ -41319,7 +41319,7 @@
         <v>48.82373469387755</v>
       </c>
       <c r="B185" t="n">
-        <v>47.48571428571429</v>
+        <v>47.48571428571432</v>
       </c>
     </row>
     <row r="186">
@@ -41327,7 +41327,7 @@
         <v>49.0369387755102</v>
       </c>
       <c r="B186" t="n">
-        <v>47.48571428571429</v>
+        <v>47.48571428571432</v>
       </c>
     </row>
     <row r="187">
@@ -41335,7 +41335,7 @@
         <v>49.25014285714285</v>
       </c>
       <c r="B187" t="n">
-        <v>47.48571428571429</v>
+        <v>47.48571428571432</v>
       </c>
     </row>
     <row r="188">
@@ -41343,7 +41343,7 @@
         <v>49.46334693877551</v>
       </c>
       <c r="B188" t="n">
-        <v>47.48571428571429</v>
+        <v>47.48571428571432</v>
       </c>
     </row>
     <row r="189">
@@ -41351,7 +41351,7 @@
         <v>49.67655102040816</v>
       </c>
       <c r="B189" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="190">
@@ -41359,7 +41359,7 @@
         <v>49.88975510204082</v>
       </c>
       <c r="B190" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="191">
@@ -41367,7 +41367,7 @@
         <v>50.10295918367347</v>
       </c>
       <c r="B191" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="192">
@@ -41375,7 +41375,7 @@
         <v>50.31616326530612</v>
       </c>
       <c r="B192" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="193">
@@ -41383,7 +41383,7 @@
         <v>50.52936734693878</v>
       </c>
       <c r="B193" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="194">
@@ -41391,7 +41391,7 @@
         <v>50.74257142857143</v>
       </c>
       <c r="B194" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="195">
@@ -41399,7 +41399,7 @@
         <v>50.95577551020408</v>
       </c>
       <c r="B195" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="196">
@@ -41407,7 +41407,7 @@
         <v>51.16897959183673</v>
       </c>
       <c r="B196" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="197">
@@ -41415,7 +41415,7 @@
         <v>51.38218367346938</v>
       </c>
       <c r="B197" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="198">
@@ -41423,7 +41423,7 @@
         <v>51.59538775510204</v>
       </c>
       <c r="B198" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="199">
@@ -41431,7 +41431,7 @@
         <v>51.80859183673469</v>
       </c>
       <c r="B199" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="200">
@@ -41439,7 +41439,7 @@
         <v>52.02179591836735</v>
       </c>
       <c r="B200" t="n">
-        <v>32.40873015873021</v>
+        <v>32.40873015873018</v>
       </c>
     </row>
     <row r="201">
@@ -41447,7 +41447,7 @@
         <v>52.235</v>
       </c>
       <c r="B201" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="202">
@@ -41455,7 +41455,7 @@
         <v>52.44820408163265</v>
       </c>
       <c r="B202" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="203">
@@ -41463,7 +41463,7 @@
         <v>52.66140816326531</v>
       </c>
       <c r="B203" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="204">
@@ -41471,7 +41471,7 @@
         <v>52.87461224489796</v>
       </c>
       <c r="B204" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="205">
@@ -41479,7 +41479,7 @@
         <v>53.08781632653061</v>
       </c>
       <c r="B205" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="206">
@@ -41487,7 +41487,7 @@
         <v>53.30102040816326</v>
       </c>
       <c r="B206" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="207">
@@ -41495,7 +41495,7 @@
         <v>53.51422448979591</v>
       </c>
       <c r="B207" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="208">
@@ -41503,7 +41503,7 @@
         <v>53.72742857142857</v>
       </c>
       <c r="B208" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="209">
@@ -41511,7 +41511,7 @@
         <v>53.94063265306122</v>
       </c>
       <c r="B209" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="210">
@@ -41519,7 +41519,7 @@
         <v>54.15383673469388</v>
       </c>
       <c r="B210" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="211">
@@ -41527,7 +41527,7 @@
         <v>54.36704081632653</v>
       </c>
       <c r="B211" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="212">
@@ -41535,7 +41535,7 @@
         <v>54.58024489795918</v>
       </c>
       <c r="B212" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="213">
@@ -41543,7 +41543,7 @@
         <v>54.79344897959184</v>
       </c>
       <c r="B213" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="214">
@@ -41551,7 +41551,7 @@
         <v>55.00665306122449</v>
       </c>
       <c r="B214" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="215">
@@ -41559,7 +41559,7 @@
         <v>55.21985714285714</v>
       </c>
       <c r="B215" t="n">
-        <v>27.53650793650796</v>
+        <v>27.53650793650795</v>
       </c>
     </row>
     <row r="216">
@@ -41567,7 +41567,7 @@
         <v>55.4330612244898</v>
       </c>
       <c r="B216" t="n">
-        <v>38.20238095238096</v>
+        <v>38.20238095238098</v>
       </c>
     </row>
     <row r="217">
@@ -41575,7 +41575,7 @@
         <v>55.64626530612244</v>
       </c>
       <c r="B217" t="n">
-        <v>38.20238095238096</v>
+        <v>38.20238095238098</v>
       </c>
     </row>
     <row r="218">
@@ -41583,7 +41583,7 @@
         <v>55.8594693877551</v>
       </c>
       <c r="B218" t="n">
-        <v>38.20238095238096</v>
+        <v>38.20238095238098</v>
       </c>
     </row>
     <row r="219">
@@ -41591,7 +41591,7 @@
         <v>56.07267346938775</v>
       </c>
       <c r="B219" t="n">
-        <v>38.20238095238096</v>
+        <v>38.20238095238098</v>
       </c>
     </row>
     <row r="220">
@@ -41599,7 +41599,7 @@
         <v>56.28587755102041</v>
       </c>
       <c r="B220" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="221">
@@ -41607,7 +41607,7 @@
         <v>56.49908163265306</v>
       </c>
       <c r="B221" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="222">
@@ -41615,7 +41615,7 @@
         <v>56.71228571428571</v>
       </c>
       <c r="B222" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="223">
@@ -41623,7 +41623,7 @@
         <v>56.92548979591837</v>
       </c>
       <c r="B223" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="224">
@@ -41631,7 +41631,7 @@
         <v>57.13869387755102</v>
       </c>
       <c r="B224" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="225">
@@ -41639,7 +41639,7 @@
         <v>57.35189795918367</v>
       </c>
       <c r="B225" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="226">
@@ -41647,7 +41647,7 @@
         <v>57.56510204081633</v>
       </c>
       <c r="B226" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="227">
@@ -41655,7 +41655,7 @@
         <v>57.77830612244898</v>
       </c>
       <c r="B227" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="228">
@@ -41663,7 +41663,7 @@
         <v>57.99151020408163</v>
       </c>
       <c r="B228" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="229">
@@ -41671,7 +41671,7 @@
         <v>58.20471428571428</v>
       </c>
       <c r="B229" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="230">
@@ -41679,7 +41679,7 @@
         <v>58.41791836734694</v>
       </c>
       <c r="B230" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="231">
@@ -41687,7 +41687,7 @@
         <v>58.63112244897959</v>
       </c>
       <c r="B231" t="n">
-        <v>26.86111111111115</v>
+        <v>26.86111111111112</v>
       </c>
     </row>
     <row r="232">
@@ -41695,7 +41695,7 @@
         <v>58.84432653061224</v>
       </c>
       <c r="B232" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="233">
@@ -41703,7 +41703,7 @@
         <v>59.0575306122449</v>
       </c>
       <c r="B233" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="234">
@@ -41711,7 +41711,7 @@
         <v>59.27073469387755</v>
       </c>
       <c r="B234" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="235">
@@ -41719,7 +41719,7 @@
         <v>59.4839387755102</v>
       </c>
       <c r="B235" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="236">
@@ -41727,7 +41727,7 @@
         <v>59.69714285714286</v>
       </c>
       <c r="B236" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="237">
@@ -41735,7 +41735,7 @@
         <v>59.91034693877551</v>
       </c>
       <c r="B237" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="238">
@@ -41743,7 +41743,7 @@
         <v>60.12355102040816</v>
       </c>
       <c r="B238" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="239">
@@ -41751,7 +41751,7 @@
         <v>60.33675510204081</v>
       </c>
       <c r="B239" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="240">
@@ -41759,7 +41759,7 @@
         <v>60.54995918367347</v>
       </c>
       <c r="B240" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="241">
@@ -41767,7 +41767,7 @@
         <v>60.76316326530612</v>
       </c>
       <c r="B241" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="242">
@@ -41775,7 +41775,7 @@
         <v>60.97636734693877</v>
       </c>
       <c r="B242" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="243">
@@ -41783,7 +41783,7 @@
         <v>61.18957142857143</v>
       </c>
       <c r="B243" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="244">
@@ -41791,7 +41791,7 @@
         <v>61.40277551020408</v>
       </c>
       <c r="B244" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="245">
@@ -41799,7 +41799,7 @@
         <v>61.61597959183673</v>
       </c>
       <c r="B245" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="246">
@@ -41807,7 +41807,7 @@
         <v>61.82918367346939</v>
       </c>
       <c r="B246" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="247">
@@ -41815,7 +41815,7 @@
         <v>62.04238775510204</v>
       </c>
       <c r="B247" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="248">
@@ -41823,7 +41823,7 @@
         <v>62.25559183673469</v>
       </c>
       <c r="B248" t="n">
-        <v>32.44537815126053</v>
+        <v>32.44537815126052</v>
       </c>
     </row>
     <row r="249">
@@ -41831,7 +41831,7 @@
         <v>62.46879591836735</v>
       </c>
       <c r="B249" t="n">
-        <v>26.77551020408163</v>
+        <v>26.77551020408165</v>
       </c>
     </row>
     <row r="250">
@@ -41839,7 +41839,7 @@
         <v>62.682</v>
       </c>
       <c r="B250" t="n">
-        <v>26.77551020408163</v>
+        <v>26.77551020408165</v>
       </c>
     </row>
     <row r="251">
@@ -41847,7 +41847,7 @@
         <v>62.89520408163265</v>
       </c>
       <c r="B251" t="n">
-        <v>26.77551020408163</v>
+        <v>26.77551020408165</v>
       </c>
     </row>
     <row r="252">
@@ -41855,7 +41855,7 @@
         <v>63.1084081632653</v>
       </c>
       <c r="B252" t="n">
-        <v>26.77551020408163</v>
+        <v>26.77551020408165</v>
       </c>
     </row>
     <row r="253">
@@ -41863,7 +41863,7 @@
         <v>63.32161224489796</v>
       </c>
       <c r="B253" t="n">
-        <v>26.77551020408163</v>
+        <v>26.77551020408165</v>
       </c>
     </row>
     <row r="254">
@@ -41871,7 +41871,7 @@
         <v>63.53481632653061</v>
       </c>
       <c r="B254" t="n">
-        <v>26.77551020408163</v>
+        <v>26.77551020408165</v>
       </c>
     </row>
     <row r="255">
@@ -41879,7 +41879,7 @@
         <v>63.74802040816326</v>
       </c>
       <c r="B255" t="n">
-        <v>26.77551020408163</v>
+        <v>26.77551020408165</v>
       </c>
     </row>
     <row r="256">
@@ -41887,7 +41887,7 @@
         <v>63.96122448979592</v>
       </c>
       <c r="B256" t="n">
-        <v>40.03174603174591</v>
+        <v>40.03174603174606</v>
       </c>
     </row>
     <row r="257">
@@ -41895,7 +41895,7 @@
         <v>64.17442857142856</v>
       </c>
       <c r="B257" t="n">
-        <v>40.03174603174591</v>
+        <v>40.03174603174606</v>
       </c>
     </row>
     <row r="258">
@@ -41903,7 +41903,7 @@
         <v>64.38763265306122</v>
       </c>
       <c r="B258" t="n">
-        <v>40.03174603174591</v>
+        <v>40.03174603174606</v>
       </c>
     </row>
     <row r="259">
@@ -41911,7 +41911,7 @@
         <v>64.60083673469387</v>
       </c>
       <c r="B259" t="n">
-        <v>54.16666666666656</v>
+        <v>54.1666666666667</v>
       </c>
     </row>
     <row r="260">
@@ -41919,7 +41919,7 @@
         <v>64.81404081632652</v>
       </c>
       <c r="B260" t="n">
-        <v>54.16666666666656</v>
+        <v>54.1666666666667</v>
       </c>
     </row>
     <row r="261">
@@ -41927,7 +41927,7 @@
         <v>65.02724489795918</v>
       </c>
       <c r="B261" t="n">
-        <v>66.18367346938781</v>
+        <v>66.1836734693878</v>
       </c>
     </row>
     <row r="262">
@@ -41935,7 +41935,7 @@
         <v>65.24044897959183</v>
       </c>
       <c r="B262" t="n">
-        <v>66.18367346938781</v>
+        <v>66.1836734693878</v>
       </c>
     </row>
     <row r="263">
@@ -41943,7 +41943,7 @@
         <v>65.45365306122449</v>
       </c>
       <c r="B263" t="n">
-        <v>66.18367346938781</v>
+        <v>66.1836734693878</v>
       </c>
     </row>
     <row r="264">
@@ -41951,7 +41951,7 @@
         <v>65.66685714285714</v>
       </c>
       <c r="B264" t="n">
-        <v>66.18367346938781</v>
+        <v>66.1836734693878</v>
       </c>
     </row>
     <row r="265">
@@ -41959,7 +41959,7 @@
         <v>65.88006122448979</v>
       </c>
       <c r="B265" t="n">
-        <v>66.18367346938781</v>
+        <v>66.1836734693878</v>
       </c>
     </row>
     <row r="266">
@@ -41967,7 +41967,7 @@
         <v>66.09326530612245</v>
       </c>
       <c r="B266" t="n">
-        <v>66.18367346938781</v>
+        <v>66.1836734693878</v>
       </c>
     </row>
     <row r="267">
@@ -41975,7 +41975,7 @@
         <v>66.3064693877551</v>
       </c>
       <c r="B267" t="n">
-        <v>66.18367346938781</v>
+        <v>66.1836734693878</v>
       </c>
     </row>
     <row r="268">
@@ -42079,7 +42079,7 @@
         <v>69.07812244897958</v>
       </c>
       <c r="B280" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="281">
@@ -42087,7 +42087,7 @@
         <v>69.29132653061224</v>
       </c>
       <c r="B281" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="282">
@@ -42095,7 +42095,7 @@
         <v>69.50453061224489</v>
       </c>
       <c r="B282" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="283">
@@ -42103,7 +42103,7 @@
         <v>69.71773469387755</v>
       </c>
       <c r="B283" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="284">
@@ -42111,7 +42111,7 @@
         <v>69.9309387755102</v>
       </c>
       <c r="B284" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="285">
@@ -42119,7 +42119,7 @@
         <v>70.14414285714285</v>
       </c>
       <c r="B285" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="286">
@@ -42127,7 +42127,7 @@
         <v>70.35734693877551</v>
       </c>
       <c r="B286" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="287">
@@ -42135,7 +42135,7 @@
         <v>70.57055102040816</v>
       </c>
       <c r="B287" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="288">
@@ -42143,7 +42143,7 @@
         <v>70.78375510204081</v>
       </c>
       <c r="B288" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="289">
@@ -42151,7 +42151,7 @@
         <v>70.99695918367347</v>
       </c>
       <c r="B289" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="290">
@@ -42159,7 +42159,7 @@
         <v>71.21016326530612</v>
       </c>
       <c r="B290" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="291">
@@ -42167,7 +42167,7 @@
         <v>71.42336734693878</v>
       </c>
       <c r="B291" t="n">
-        <v>60.85714285714292</v>
+        <v>60.85714285714289</v>
       </c>
     </row>
     <row r="292">
@@ -42175,7 +42175,7 @@
         <v>71.63657142857143</v>
       </c>
       <c r="B292" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="293">
@@ -42183,7 +42183,7 @@
         <v>71.84977551020408</v>
       </c>
       <c r="B293" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="294">
@@ -42191,7 +42191,7 @@
         <v>72.06297959183674</v>
       </c>
       <c r="B294" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="295">
@@ -42199,7 +42199,7 @@
         <v>72.27618367346939</v>
       </c>
       <c r="B295" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="296">
@@ -42207,7 +42207,7 @@
         <v>72.48938775510204</v>
       </c>
       <c r="B296" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="297">
@@ -42215,7 +42215,7 @@
         <v>72.7025918367347</v>
       </c>
       <c r="B297" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="298">
@@ -42223,7 +42223,7 @@
         <v>72.91579591836735</v>
       </c>
       <c r="B298" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="299">
@@ -42231,7 +42231,7 @@
         <v>73.129</v>
       </c>
       <c r="B299" t="n">
-        <v>52.73214285714293</v>
+        <v>52.73214285714289</v>
       </c>
     </row>
     <row r="300">
@@ -42271,7 +42271,7 @@
         <v>74.19502040816326</v>
       </c>
       <c r="B304" t="n">
-        <v>52.19047619047625</v>
+        <v>52.19047619047623</v>
       </c>
     </row>
     <row r="305">
@@ -42279,7 +42279,7 @@
         <v>74.40822448979591</v>
       </c>
       <c r="B305" t="n">
-        <v>52.19047619047625</v>
+        <v>52.19047619047623</v>
       </c>
     </row>
     <row r="306">
@@ -42287,7 +42287,7 @@
         <v>74.62142857142857</v>
       </c>
       <c r="B306" t="n">
-        <v>52.19047619047625</v>
+        <v>52.19047619047623</v>
       </c>
     </row>
     <row r="307">
@@ -42295,7 +42295,7 @@
         <v>74.83463265306122</v>
       </c>
       <c r="B307" t="n">
-        <v>36.39047619047629</v>
+        <v>36.39047619047621</v>
       </c>
     </row>
     <row r="308">
@@ -42303,7 +42303,7 @@
         <v>75.04783673469387</v>
       </c>
       <c r="B308" t="n">
-        <v>36.39047619047629</v>
+        <v>36.39047619047621</v>
       </c>
     </row>
     <row r="309">
@@ -42311,7 +42311,7 @@
         <v>75.26104081632653</v>
       </c>
       <c r="B309" t="n">
-        <v>36.39047619047629</v>
+        <v>36.39047619047621</v>
       </c>
     </row>
     <row r="310">
@@ -42319,7 +42319,7 @@
         <v>75.47424489795918</v>
       </c>
       <c r="B310" t="n">
-        <v>36.39047619047629</v>
+        <v>36.39047619047621</v>
       </c>
     </row>
     <row r="311">
@@ -42327,7 +42327,7 @@
         <v>75.68744897959184</v>
       </c>
       <c r="B311" t="n">
-        <v>36.39047619047629</v>
+        <v>36.39047619047621</v>
       </c>
     </row>
     <row r="312">
@@ -42599,7 +42599,7 @@
         <v>82.93638775510203</v>
       </c>
       <c r="B345" t="n">
-        <v>35.70238095238097</v>
+        <v>35.70238095238098</v>
       </c>
     </row>
     <row r="346">
@@ -42607,7 +42607,7 @@
         <v>83.14959183673469</v>
       </c>
       <c r="B346" t="n">
-        <v>35.70238095238097</v>
+        <v>35.70238095238098</v>
       </c>
     </row>
     <row r="347">
@@ -42615,7 +42615,7 @@
         <v>83.36279591836734</v>
       </c>
       <c r="B347" t="n">
-        <v>35.70238095238097</v>
+        <v>35.70238095238098</v>
       </c>
     </row>
     <row r="348">
@@ -42623,7 +42623,7 @@
         <v>83.57599999999999</v>
       </c>
       <c r="B348" t="n">
-        <v>35.70238095238097</v>
+        <v>35.70238095238098</v>
       </c>
     </row>
     <row r="349">
@@ -42631,7 +42631,7 @@
         <v>83.78920408163265</v>
       </c>
       <c r="B349" t="n">
-        <v>26.38095238095242</v>
+        <v>26.3809523809524</v>
       </c>
     </row>
     <row r="350">
@@ -42639,7 +42639,7 @@
         <v>84.0024081632653</v>
       </c>
       <c r="B350" t="n">
-        <v>26.38095238095242</v>
+        <v>26.3809523809524</v>
       </c>
     </row>
     <row r="351">
@@ -42647,7 +42647,7 @@
         <v>84.21561224489795</v>
       </c>
       <c r="B351" t="n">
-        <v>26.38095238095242</v>
+        <v>26.3809523809524</v>
       </c>
     </row>
     <row r="352">
@@ -42655,7 +42655,7 @@
         <v>84.42881632653061</v>
       </c>
       <c r="B352" t="n">
-        <v>26.38095238095242</v>
+        <v>26.3809523809524</v>
       </c>
     </row>
     <row r="353">
@@ -42663,7 +42663,7 @@
         <v>84.64202040816326</v>
       </c>
       <c r="B353" t="n">
-        <v>26.38095238095242</v>
+        <v>26.3809523809524</v>
       </c>
     </row>
     <row r="354">
@@ -42671,7 +42671,7 @@
         <v>84.85522448979592</v>
       </c>
       <c r="B354" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="355">
@@ -42679,7 +42679,7 @@
         <v>85.06842857142857</v>
       </c>
       <c r="B355" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="356">
@@ -42687,7 +42687,7 @@
         <v>85.28163265306122</v>
       </c>
       <c r="B356" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="357">
@@ -42695,7 +42695,7 @@
         <v>85.49483673469388</v>
       </c>
       <c r="B357" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="358">
@@ -42703,7 +42703,7 @@
         <v>85.70804081632653</v>
       </c>
       <c r="B358" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="359">
@@ -42711,7 +42711,7 @@
         <v>85.92124489795918</v>
       </c>
       <c r="B359" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="360">
@@ -42719,7 +42719,7 @@
         <v>86.13444897959184</v>
       </c>
       <c r="B360" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="361">
@@ -42727,7 +42727,7 @@
         <v>86.34765306122449</v>
       </c>
       <c r="B361" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="362">
@@ -42735,7 +42735,7 @@
         <v>86.56085714285715</v>
       </c>
       <c r="B362" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="363">
@@ -42743,7 +42743,7 @@
         <v>86.7740612244898</v>
       </c>
       <c r="B363" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="364">
@@ -42751,7 +42751,7 @@
         <v>86.98726530612245</v>
       </c>
       <c r="B364" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="365">
@@ -42759,7 +42759,7 @@
         <v>87.20046938775511</v>
       </c>
       <c r="B365" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="366">
@@ -42767,7 +42767,7 @@
         <v>87.41367346938775</v>
       </c>
       <c r="B366" t="n">
-        <v>31.30036630036631</v>
+        <v>31.30036630036632</v>
       </c>
     </row>
     <row r="367">
@@ -42839,7 +42839,7 @@
         <v>89.33251020408163</v>
       </c>
       <c r="B375" t="n">
-        <v>33.05555555555563</v>
+        <v>33.05555555555558</v>
       </c>
     </row>
     <row r="376">
@@ -42847,7 +42847,7 @@
         <v>89.54571428571428</v>
       </c>
       <c r="B376" t="n">
-        <v>33.05555555555563</v>
+        <v>33.05555555555558</v>
       </c>
     </row>
     <row r="377">
@@ -42855,7 +42855,7 @@
         <v>89.75891836734694</v>
       </c>
       <c r="B377" t="n">
-        <v>33.05555555555563</v>
+        <v>33.05555555555558</v>
       </c>
     </row>
     <row r="378">
@@ -42863,7 +42863,7 @@
         <v>89.97212244897959</v>
       </c>
       <c r="B378" t="n">
-        <v>33.05555555555563</v>
+        <v>33.05555555555558</v>
       </c>
     </row>
     <row r="379">
@@ -42871,7 +42871,7 @@
         <v>90.18532653061224</v>
       </c>
       <c r="B379" t="n">
-        <v>33.05555555555563</v>
+        <v>33.05555555555558</v>
       </c>
     </row>
     <row r="380">
@@ -42879,7 +42879,7 @@
         <v>90.3985306122449</v>
       </c>
       <c r="B380" t="n">
-        <v>33.05555555555563</v>
+        <v>33.05555555555558</v>
       </c>
     </row>
     <row r="381">
@@ -42887,7 +42887,7 @@
         <v>90.61173469387755</v>
       </c>
       <c r="B381" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="382">
@@ -42895,7 +42895,7 @@
         <v>90.8249387755102</v>
       </c>
       <c r="B382" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="383">
@@ -42903,7 +42903,7 @@
         <v>91.03814285714286</v>
       </c>
       <c r="B383" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="384">
@@ -42911,7 +42911,7 @@
         <v>91.25134693877551</v>
       </c>
       <c r="B384" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="385">
@@ -42919,7 +42919,7 @@
         <v>91.46455102040817</v>
       </c>
       <c r="B385" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="386">
@@ -42927,7 +42927,7 @@
         <v>91.67775510204082</v>
       </c>
       <c r="B386" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="387">
@@ -42935,7 +42935,7 @@
         <v>91.89095918367347</v>
       </c>
       <c r="B387" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="388">
@@ -42943,7 +42943,7 @@
         <v>92.10416326530611</v>
       </c>
       <c r="B388" t="n">
-        <v>27.00000000000001</v>
+        <v>27.00000000000002</v>
       </c>
     </row>
     <row r="389">
@@ -43055,7 +43055,7 @@
         <v>95.08902040816326</v>
       </c>
       <c r="B402" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="403">
@@ -43063,7 +43063,7 @@
         <v>95.30222448979592</v>
       </c>
       <c r="B403" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="404">
@@ -43071,7 +43071,7 @@
         <v>95.51542857142857</v>
       </c>
       <c r="B404" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="405">
@@ -43079,7 +43079,7 @@
         <v>95.72863265306123</v>
       </c>
       <c r="B405" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="406">
@@ -43087,7 +43087,7 @@
         <v>95.94183673469388</v>
       </c>
       <c r="B406" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="407">
@@ -43095,7 +43095,7 @@
         <v>96.15504081632653</v>
       </c>
       <c r="B407" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="408">
@@ -43103,7 +43103,7 @@
         <v>96.36824489795919</v>
       </c>
       <c r="B408" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="409">
@@ -43111,7 +43111,7 @@
         <v>96.58144897959184</v>
       </c>
       <c r="B409" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="410">
@@ -43119,7 +43119,7 @@
         <v>96.79465306122449</v>
       </c>
       <c r="B410" t="n">
-        <v>34.07407407407413</v>
+        <v>34.0740740740741</v>
       </c>
     </row>
     <row r="411">
@@ -43127,7 +43127,7 @@
         <v>97.00785714285713</v>
       </c>
       <c r="B411" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="412">
@@ -43135,7 +43135,7 @@
         <v>97.22106122448979</v>
       </c>
       <c r="B412" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="413">
@@ -43143,7 +43143,7 @@
         <v>97.43426530612244</v>
       </c>
       <c r="B413" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="414">
@@ -43151,7 +43151,7 @@
         <v>97.64746938775509</v>
       </c>
       <c r="B414" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="415">
@@ -43159,7 +43159,7 @@
         <v>97.86067346938775</v>
       </c>
       <c r="B415" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="416">
@@ -43167,7 +43167,7 @@
         <v>98.0738775510204</v>
       </c>
       <c r="B416" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="417">
@@ -43175,7 +43175,7 @@
         <v>98.28708163265306</v>
       </c>
       <c r="B417" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="418">
@@ -43183,7 +43183,7 @@
         <v>98.50028571428571</v>
       </c>
       <c r="B418" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="419">
@@ -43191,7 +43191,7 @@
         <v>98.71348979591836</v>
       </c>
       <c r="B419" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="420">
@@ -43199,7 +43199,7 @@
         <v>98.92669387755102</v>
       </c>
       <c r="B420" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="421">
@@ -43207,7 +43207,7 @@
         <v>99.13989795918367</v>
       </c>
       <c r="B421" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="422">
@@ -43215,7 +43215,7 @@
         <v>99.35310204081632</v>
       </c>
       <c r="B422" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="423">
@@ -43223,7 +43223,7 @@
         <v>99.56630612244898</v>
       </c>
       <c r="B423" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="424">
@@ -43231,7 +43231,7 @@
         <v>99.77951020408163</v>
       </c>
       <c r="B424" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="425">
@@ -43239,7 +43239,7 @@
         <v>99.99271428571429</v>
       </c>
       <c r="B425" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="426">
@@ -43247,7 +43247,7 @@
         <v>100.2059183673469</v>
       </c>
       <c r="B426" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="427">
@@ -43255,7 +43255,7 @@
         <v>100.4191224489796</v>
       </c>
       <c r="B427" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="428">
@@ -43263,7 +43263,7 @@
         <v>100.6323265306122</v>
       </c>
       <c r="B428" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="429">
@@ -43271,7 +43271,7 @@
         <v>100.8455306122449</v>
       </c>
       <c r="B429" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="430">
@@ -43279,7 +43279,7 @@
         <v>101.0587346938776</v>
       </c>
       <c r="B430" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="431">
@@ -43287,7 +43287,7 @@
         <v>101.2719387755102</v>
       </c>
       <c r="B431" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="432">
@@ -43295,7 +43295,7 @@
         <v>101.4851428571429</v>
       </c>
       <c r="B432" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="433">
@@ -43303,7 +43303,7 @@
         <v>101.6983469387755</v>
       </c>
       <c r="B433" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="434">
@@ -43311,7 +43311,7 @@
         <v>101.9115510204082</v>
       </c>
       <c r="B434" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="435">
@@ -43319,7 +43319,7 @@
         <v>102.1247551020408</v>
       </c>
       <c r="B435" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="436">
@@ -43327,7 +43327,7 @@
         <v>102.3379591836735</v>
       </c>
       <c r="B436" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="437">
@@ -43335,7 +43335,7 @@
         <v>102.5511632653061</v>
       </c>
       <c r="B437" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="438">
@@ -43343,7 +43343,7 @@
         <v>102.7643673469388</v>
       </c>
       <c r="B438" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="439">
@@ -43351,7 +43351,7 @@
         <v>102.9775714285714</v>
       </c>
       <c r="B439" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="440">
@@ -43359,7 +43359,7 @@
         <v>103.1907755102041</v>
       </c>
       <c r="B440" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="441">
@@ -43367,7 +43367,7 @@
         <v>103.4039795918367</v>
       </c>
       <c r="B441" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="442">
@@ -43375,7 +43375,7 @@
         <v>103.6171836734694</v>
       </c>
       <c r="B442" t="n">
-        <v>27.83630952380955</v>
+        <v>27.83630952380954</v>
       </c>
     </row>
     <row r="443">
@@ -43383,7 +43383,7 @@
         <v>103.830387755102</v>
       </c>
       <c r="B443" t="n">
-        <v>34.1700680272109</v>
+        <v>34.17006802721091</v>
       </c>
     </row>
     <row r="444">
@@ -43391,7 +43391,7 @@
         <v>104.0435918367347</v>
       </c>
       <c r="B444" t="n">
-        <v>34.1700680272109</v>
+        <v>34.17006802721091</v>
       </c>
     </row>
     <row r="445">
@@ -43399,7 +43399,7 @@
         <v>104.2567959183673</v>
       </c>
       <c r="B445" t="n">
-        <v>34.1700680272109</v>
+        <v>34.17006802721091</v>
       </c>
     </row>
     <row r="446">
@@ -43407,7 +43407,7 @@
         <v>104.47</v>
       </c>
       <c r="B446" t="n">
-        <v>34.1700680272109</v>
+        <v>34.17006802721091</v>
       </c>
     </row>
     <row r="447">
@@ -43415,7 +43415,7 @@
         <v>104.6832040816327</v>
       </c>
       <c r="B447" t="n">
-        <v>34.1700680272109</v>
+        <v>34.17006802721091</v>
       </c>
     </row>
     <row r="448">
@@ -43423,7 +43423,7 @@
         <v>104.8964081632653</v>
       </c>
       <c r="B448" t="n">
-        <v>34.1700680272109</v>
+        <v>34.17006802721091</v>
       </c>
     </row>
     <row r="449">
@@ -43431,7 +43431,7 @@
         <v>105.109612244898</v>
       </c>
       <c r="B449" t="n">
-        <v>34.1700680272109</v>
+        <v>34.17006802721091</v>
       </c>
     </row>
     <row r="450">
@@ -43751,7 +43751,7 @@
         <v>113.6377755102041</v>
       </c>
       <c r="B489" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="490">
@@ -43759,7 +43759,7 @@
         <v>113.8509795918367</v>
       </c>
       <c r="B490" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="491">
@@ -43767,7 +43767,7 @@
         <v>114.0641836734694</v>
       </c>
       <c r="B491" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="492">
@@ -43775,7 +43775,7 @@
         <v>114.277387755102</v>
       </c>
       <c r="B492" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="493">
@@ -43783,7 +43783,7 @@
         <v>114.4905918367347</v>
       </c>
       <c r="B493" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="494">
@@ -43791,7 +43791,7 @@
         <v>114.7037959183673</v>
       </c>
       <c r="B494" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="495">
@@ -43799,7 +43799,7 @@
         <v>114.917</v>
       </c>
       <c r="B495" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="496">
@@ -43807,7 +43807,7 @@
         <v>115.1302040816327</v>
       </c>
       <c r="B496" t="n">
-        <v>30.5416666666667</v>
+        <v>30.54166666666669</v>
       </c>
     </row>
     <row r="497">
@@ -43815,7 +43815,7 @@
         <v>115.3434081632653</v>
       </c>
       <c r="B497" t="n">
-        <v>36.65476190476187</v>
+        <v>36.65476190476193</v>
       </c>
     </row>
     <row r="498">
@@ -43823,7 +43823,7 @@
         <v>115.556612244898</v>
       </c>
       <c r="B498" t="n">
-        <v>36.65476190476187</v>
+        <v>36.65476190476193</v>
       </c>
     </row>
     <row r="499">
@@ -43831,7 +43831,7 @@
         <v>115.7698163265306</v>
       </c>
       <c r="B499" t="n">
-        <v>36.65476190476187</v>
+        <v>36.65476190476193</v>
       </c>
     </row>
     <row r="500">
@@ -43839,7 +43839,7 @@
         <v>115.9830204081633</v>
       </c>
       <c r="B500" t="n">
-        <v>36.65476190476187</v>
+        <v>36.65476190476193</v>
       </c>
     </row>
     <row r="501">
@@ -43847,7 +43847,7 @@
         <v>116.1962244897959</v>
       </c>
       <c r="B501" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="502">
@@ -43855,7 +43855,7 @@
         <v>116.4094285714286</v>
       </c>
       <c r="B502" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="503">
@@ -43863,7 +43863,7 @@
         <v>116.6226326530612</v>
       </c>
       <c r="B503" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="504">
@@ -43871,7 +43871,7 @@
         <v>116.8358367346939</v>
       </c>
       <c r="B504" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="505">
@@ -43879,7 +43879,7 @@
         <v>117.0490408163265</v>
       </c>
       <c r="B505" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="506">
@@ -43887,7 +43887,7 @@
         <v>117.2622448979592</v>
       </c>
       <c r="B506" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="507">
@@ -43895,7 +43895,7 @@
         <v>117.4754489795918</v>
       </c>
       <c r="B507" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="508">
@@ -43903,7 +43903,7 @@
         <v>117.6886530612245</v>
       </c>
       <c r="B508" t="n">
-        <v>46.20833333333337</v>
+        <v>46.20833333333336</v>
       </c>
     </row>
     <row r="509">
@@ -43911,7 +43911,7 @@
         <v>117.9018571428571</v>
       </c>
       <c r="B509" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="510">
@@ -43919,7 +43919,7 @@
         <v>118.1150612244898</v>
       </c>
       <c r="B510" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="511">
@@ -43927,7 +43927,7 @@
         <v>118.3282653061224</v>
       </c>
       <c r="B511" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="512">
@@ -43935,7 +43935,7 @@
         <v>118.5414693877551</v>
       </c>
       <c r="B512" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="513">
@@ -43943,7 +43943,7 @@
         <v>118.7546734693878</v>
       </c>
       <c r="B513" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="514">
@@ -43951,7 +43951,7 @@
         <v>118.9678775510204</v>
       </c>
       <c r="B514" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="515">
@@ -43959,7 +43959,7 @@
         <v>119.1810816326531</v>
       </c>
       <c r="B515" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="516">
@@ -43967,7 +43967,7 @@
         <v>119.3942857142857</v>
       </c>
       <c r="B516" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="517">
@@ -43975,7 +43975,7 @@
         <v>119.6074897959184</v>
       </c>
       <c r="B517" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="518">
@@ -43983,7 +43983,7 @@
         <v>119.820693877551</v>
       </c>
       <c r="B518" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="519">
@@ -43991,7 +43991,7 @@
         <v>120.0338979591837</v>
       </c>
       <c r="B519" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="520">
@@ -43999,7 +43999,7 @@
         <v>120.2471020408163</v>
       </c>
       <c r="B520" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="521">
@@ -44007,7 +44007,7 @@
         <v>120.460306122449</v>
       </c>
       <c r="B521" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="522">
@@ -44015,7 +44015,7 @@
         <v>120.6735102040816</v>
       </c>
       <c r="B522" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="523">
@@ -44023,7 +44023,7 @@
         <v>120.8867142857143</v>
       </c>
       <c r="B523" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
     <row r="524">
@@ -44031,7 +44031,7 @@
         <v>121.0999183673469</v>
       </c>
       <c r="B524" t="n">
-        <v>33.7604166666667</v>
+        <v>33.76041666666669</v>
       </c>
     </row>
   </sheetData>
